--- a/back-end/Data/ALL-Blue-Data/5-Au-blue-0-none-output_rgb_values.xlsx
+++ b/back-end/Data/ALL-Blue-Data/5-Au-blue-0-none-output_rgb_values.xlsx
@@ -55,7 +55,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +66,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -540,148 +533,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1041,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1056,6 +1049,7 @@
     <col min="1" max="1" width="13.8981481481481" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.2407407407407" style="1" customWidth="1"/>
     <col min="3" max="5" width="12.8888888888889"/>
+    <col min="7" max="7" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1084,13 +1078,13 @@
         <v>0.030668485675307</v>
       </c>
       <c r="C2">
-        <v>161.746111111111</v>
+        <v>169.541388888889</v>
       </c>
       <c r="D2">
         <v>165.427222222222</v>
       </c>
       <c r="E2">
-        <v>169.541388888889</v>
+        <v>161.746111111111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1102,13 +1096,13 @@
         <v>0.0688676671214188</v>
       </c>
       <c r="C3">
-        <v>151.383333333333</v>
+        <v>169.695555555556</v>
       </c>
       <c r="D3">
         <v>161.912777777778</v>
       </c>
       <c r="E3">
-        <v>169.695555555556</v>
+        <v>151.383333333333</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1120,13 +1114,13 @@
         <v>0.074324693042292</v>
       </c>
       <c r="C4">
-        <v>130.304722222222</v>
+        <v>145.773055555555</v>
       </c>
       <c r="D4">
         <v>138.918333333333</v>
       </c>
       <c r="E4">
-        <v>145.773055555555</v>
+        <v>130.304722222222</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1138,13 +1132,13 @@
         <v>0.0852387448840382</v>
       </c>
       <c r="C5">
-        <v>140.338611111111</v>
+        <v>151.215555555556</v>
       </c>
       <c r="D5">
         <v>146.136944444445</v>
       </c>
       <c r="E5">
-        <v>151.215555555556</v>
+        <v>140.338611111111</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1156,13 +1150,13 @@
         <v>0.439945429740791</v>
       </c>
       <c r="C6">
-        <v>138.403611111111</v>
+        <v>141.623611111111</v>
       </c>
       <c r="D6">
         <v>140.891944444444</v>
       </c>
       <c r="E6">
-        <v>141.623611111111</v>
+        <v>138.403611111111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1174,13 +1168,13 @@
         <v>2.03339699863574</v>
       </c>
       <c r="C7">
-        <v>139.085</v>
+        <v>143.720277777778</v>
       </c>
       <c r="D7">
         <v>144.344444444444</v>
       </c>
       <c r="E7">
-        <v>143.720277777778</v>
+        <v>139.085</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1192,13 +1186,13 @@
         <v>4.09615279672578</v>
       </c>
       <c r="C8">
-        <v>138.371666666667</v>
+        <v>113.2125</v>
       </c>
       <c r="D8">
         <v>132.308888888889</v>
       </c>
       <c r="E8">
-        <v>113.2125</v>
+        <v>138.371666666667</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1210,13 +1204,13 @@
         <v>7.71416098226467</v>
       </c>
       <c r="C9">
-        <v>155.345555555556</v>
+        <v>31.2138888888889</v>
       </c>
       <c r="D9">
         <v>125.648055555556</v>
       </c>
       <c r="E9">
-        <v>31.2138888888889</v>
+        <v>155.345555555556</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1228,13 +1222,13 @@
         <v>7.77418826739427</v>
       </c>
       <c r="C10">
-        <v>139.885</v>
+        <v>28.3205555555556</v>
       </c>
       <c r="D10">
         <v>113.245833333333</v>
       </c>
       <c r="E10">
-        <v>28.3205555555556</v>
+        <v>139.885</v>
       </c>
     </row>
   </sheetData>
